--- a/result_file/output_chunk_1.xlsx
+++ b/result_file/output_chunk_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6098,6 +6098,5352 @@
         </is>
       </c>
       <c r="J107" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Kate Tuyen Dang</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>199 14th St NE, Unit 2508
+Atlanta GA 30309</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/1</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Jacqueline R Palmer</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>420 Avalon Ln
+Coppell TX 75019</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Matthew D Laubhan</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Patricia Rooney Robichaux</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1912 State St
+New Orleans LA 70118</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/1</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Gary Bledsoe</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>4303 Cumbria Ln
+Austin TX 78727</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Alexus A Uchendu</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>9231 Cattail Gate Ct
+Humble TX 77396</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/1</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Brandon Timothy De Siqueira</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1615 Sawdust Rd, Unit 13137
+Spring TX 77380</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/1</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Patrick Michael Goulding</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>4848 Pin Oak Park, Unit 1512
+Houston TX 77081</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/1</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Braden K Pew</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>11807 Amblewood Dr
+Meadows Place TX 77477</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/1</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Karen I Davila</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct, Unit 534
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/2</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Bryan Jahnke</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>212 Momar Dr
+Ramsey NJ 07446</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/2</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Dakota Elloise Broadway</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>4848 Pin Oak Park, Unit 113
+Houston TX 77081</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/2</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Cecilia Jane O'Brien</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>4221 Colgate Ave
+Dallas TX 75225</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/2</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Yusef Bahaa Eldin</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2210 W Holcombe Blvd
+Houston TX 77030</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/2</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Courtney Elizabeth Whitcher</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>18545 Melvin St
+Livonia MI 48152</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/2</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Brandy Dye</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>8380 El Mundo St, Unit 615
+Houston TX 77054</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/2</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Diandra Biggs</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/2</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Colby James Belaire</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>9522 London Bridge Sta
+Houston TX 77045</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/2</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Victor Jesus Rodriguez</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/2</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Genevieve Ray</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>1614 Rose Hill Dr
+Charlottesville VA 22903</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/3</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/4</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Veronica Thompson</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/4</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Khalia S York</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>5653 Oasis Palm
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/4</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Lauren Elizabeth Morris</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/4</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Clay A Sheppard</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>4641 Montrose Blvd, Unit 843
+Houston TX 77006</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/4</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Kayla Farooqui</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>630 Smith Ave
+Pasadena TX 77504</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/4</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Terrence W Alexander</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>3513 Mimosa Ct
+New Orleans LA 70131</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/4</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Nicole Danielle Embry</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/4</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Sike O Akhionbare</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/4</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Joey Castro</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>5445 S Alameda St, Unit 24F
+Corp Christi TX 78412</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/4</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Destiny Allenice Smith</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>7716 Cora St
+Houston TX 77088</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/5</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Patrick Mcgeoghegan</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>43 Bel Air Rd
+Hingham MA 02043</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/5</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Jasmine M Banegas</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/5</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Desmond Brian Harmon</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/5</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Luke N Seale</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/5</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Samantha J Lowe</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>1407 Limerick Ct
+Keller TX 76262</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/5</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Michael Anthony Disario</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>36 Spinnaker Cir
+South Daytona FL 32119</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/5</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Robert J Peterson</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>15 Warrenton Dr
+Houston TX 77024</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/5</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Kar Shaunak</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>4210 Red River St, Unit 303
+Austin TX 78751</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/5</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Jamie Sabbaghbarrett</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/5</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Kevin Fobbs</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2012 Reid St
+Houston TX 77026</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/6</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Valencia Nicholson</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>3232 Berry St, Unit 1
+Houston TX 77004</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/6</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Lilia Iovenco</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/6</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Jordan Cole Alexander</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>25938 Chapman Falls Dr
+Richmond TX 77406</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/6</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Tabitha Michelle Schneider</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>4321 Hazard St, Unit 7
+Houston TX 77098</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/6</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Jasmine Nicole Johnson</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2411 Washington Ave, Unit 210
+Houston TX 77007</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/6</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>William D Cowan</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct, Unit 452
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/6</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Sigmund Francis Haidacher</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1850 Old Main St, Unit 2709
+Houston TX 77030</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/6</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Lynette C Mckenzie</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct, Unit 370
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/6</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Michael A Paolini Jr</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>3335 Manzanita Ln
+Manvel TX 77578</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/6</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Grace Lily Ann Waterman</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/7</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Demilade Shoyombo</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/7</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Ahmed Swaify</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>3550 Main St, Unit 6226
+Houston TX 77002</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/7</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Devante Shaquille Thomas</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>3861 S State Ave
+Indianapolis IN 46227</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/7</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Savanah Grace Weaver</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2607 Hardy St
+Houston TX 77009</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/7</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Martin Antonio Mendez Jr</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/7</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Aciel Castillo</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/7</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Jasmine Montalvo</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/7</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Marcel R Campbell</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>3550 Main St, Unit 6215
+Houston TX 77002</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/7</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Stacey Lynn Burgess</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/7</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Logan Taylor Donlan</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>6000 Eldorado Pkwy, Unit 522
+Frisco TX 75033</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/8</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Kelsey A Semien</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>10712 Stella St
+Oakland CA 94605</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/8</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Alonzo Ma Harewood</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/8</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Anna Azille</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>10800 Lakeline Blvd, Unit 10303
+Austin TX 78717</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/8</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Katherine Nicole Melito</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>505 El Vado Cir
+Liberty Hill TX 78642</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/8</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Daniel P Gibboney Jr</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/8</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Rafael Lashaun Tillery</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct, Unit 643
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/8</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Laura Meredith Fouad</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct, Unit 629
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/8</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Tori M Parish</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/8</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Katherine J Rice</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>6226 Whistling Pines Dr
+Spring TX 77389</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/8</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Cinthia A Cuevas</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>14946 Belvoir St
+Channelview TX 77530</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/9</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Karen A Campbell</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>6227 Crystal Cv
+Rosharon TX 77583</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/9</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Ryan Matthew Stacy</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>6022 Parkwood Pl
+Sugar Land TX 77479</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/9</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Bradley Jaliyah</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>17230 Trace Glen Ln
+Houston TX 77083</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/9</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Kristin Hernandez</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct, Unit 836
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/9</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Natosha Lee Diggs</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct, Unit 231
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/9</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>George G Munley</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>1711 Hermitage Dr
+Round Rock TX 78681</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/9</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Dionna Taylor</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>3711 Creekmont Green Ln
+Houston TX 77091</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/9</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Melissa C Khalil</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>10961 Burnt Mill Rd, Unit 1433
+Jacksonville FL 32256</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/9</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Jamar Foster</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/9</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>William Shipp</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2835 194th Ave SE
+Sammamish WA 98075</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/10</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Aidan P Murphy</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>601 Gondoliere Ave
+Coral Gables FL 33143</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/10</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Nikhil Khurana</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct, Unit 745
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/10</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Kimberly Alese Pickering</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>3936 W Alabama St, Unit 8
+Houston TX 77027</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/10</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Roy Anthony Cormier</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>9630 Pagewood Ln
+Houston TX 77063</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/10</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Elizabeth Page</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>8005 Brighton Summit Ave
+Las Vegas NV 89131</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/10</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Tessa A Barrera</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>3520 Europa St
+Houston TX 77022</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/10</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Alisha K Davis</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>3720 30th Avenue Ct NW
+Gig Harbor WA 98335</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/10</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Phillip Michael James</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>54 Lindenberry Cir
+Spring TX 77389</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/10</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Matthew Cody Danner</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>841 Kodak Dr
+Los Angeles CA 90026</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/10</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Rainey Hughes</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct, Unit 417
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/11</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>John Charles Doran Jr</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>476 Beaver Dam Rd
+Montgomery NY 12549</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/11</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Haley Kemp</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>707 Kessler Lake Dr
+Dallas TX 75208</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/11</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Keiko Ca Salazar</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>6301 Almeda Rd, Unit 211
+Houston TX 77021</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/11</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Le Anthony V</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2203 Coral Cove Dr
+Pearland TX 77584</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/11</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Zachary T Brier</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>103 Rosebrooks Dr
+Cary NC 27513</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/11</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Abraham F Arenas</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>1330 Old Spanish Trl, Unit 3205
+Houston TX 77054</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/11</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Amarilys P Rojas</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>7700 E Peakview Ave, Unit 297
+Centennial CO 80111</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/11</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Sung Sam Jung</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>4502 Blossom Hill Trl
+Ann Arbor MI 48108</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/11</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Cora Louise Jackson</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>11900 Barryknoll Ln, Unit 3101
+Houston TX 77024</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>1 Hermann Park Ct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://www.fastpeoplesearch.com/address/1-hermann-park-ct_houston-tx/page/11</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>James Young Lopez</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>13506 Harpers Bridge Dr
+Houston TX 77041</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>True</t>
         </is>
